--- a/Study 2/results/altruism_ml_results.xlsx
+++ b/Study 2/results/altruism_ml_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">rowname</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.upper</t>
   </si>
   <si>
     <t xml:space="preserve">r_xy1y2</t>
@@ -455,10 +461,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>-0.533680282822207</v>
@@ -475,10 +487,16 @@
       <c r="F2" t="n">
         <v>0.00000437462177627036</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.746042491862588</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.321318073781826</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>-0.119972253958424</v>
@@ -495,10 +513,16 @@
       <c r="F3" t="n">
         <v>0.00486049239182246</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.202215118496997</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0377293894198507</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0562886813695994</v>
@@ -515,10 +539,16 @@
       <c r="F4" t="n">
         <v>0.166465416443895</v>
       </c>
+      <c r="G4" t="n">
+        <v>-0.136587787757276</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0240104250180769</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>-0.331034594329411</v>
@@ -535,10 +565,16 @@
       <c r="F5" t="n">
         <v>0.00486049239182247</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.557964008429192</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.104105180229629</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>-0.165973017005494</v>
@@ -555,10 +591,16 @@
       <c r="F6" t="n">
         <v>0.166465416443895</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.402743263273968</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0707972292629808</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>-0.342015842091268</v>
@@ -575,10 +617,16 @@
       <c r="F7" t="n">
         <v>0.00486049239182247</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.57647307401846</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.107558610164075</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>-0.160467275754461</v>
@@ -595,10 +643,16 @@
       <c r="F8" t="n">
         <v>0.166465416443895</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.389383259110703</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0684487076017813</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>-0.0881304676640117</v>
@@ -615,10 +669,16 @@
       <c r="F9" t="n">
         <v>0.0319143445664243</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.168415031034521</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.00784590429350256</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>-0.104209736816482</v>
@@ -635,10 +695,16 @@
       <c r="F10" t="n">
         <v>0.0000000000111846009858307</v>
       </c>
+      <c r="G10" t="n">
+        <v>-0.129685875097318</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.078733598535645</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>-0.0636835725888246</v>
@@ -655,10 +721,16 @@
       <c r="F11" t="n">
         <v>0.00000437462177627037</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.0890245578000989</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0383425873775503</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>-0.194507348435464</v>
@@ -667,10 +739,12 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>-0.176466995706537</v>
@@ -679,10 +753,12 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>-1.63636763108935</v>
@@ -691,10 +767,12 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>-0.0244468950751872</v>
@@ -711,10 +789,16 @@
       <c r="F15" t="n">
         <v>0.555321724222152</v>
       </c>
+      <c r="G15" t="n">
+        <v>-0.106731846733835</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0578380565834612</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>-0.0696929925860571</v>
@@ -731,10 +815,16 @@
       <c r="F16" t="n">
         <v>0.555321724222152</v>
       </c>
+      <c r="G16" t="n">
+        <v>-0.304270206103481</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.164884220931367</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>-0.0834422283435352</v>
@@ -751,10 +841,16 @@
       <c r="F17" t="n">
         <v>0.507062244495859</v>
       </c>
+      <c r="G17" t="n">
+        <v>-0.33304872697581</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.16616427028874</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>-0.112577362739199</v>
@@ -771,10 +867,16 @@
       <c r="F18" t="n">
         <v>0.916767291778053</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.273175575514552</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0480208500361539</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>-0.320934551508921</v>
@@ -791,10 +893,16 @@
       <c r="F19" t="n">
         <v>0.916767291778053</v>
       </c>
+      <c r="G19" t="n">
+        <v>-0.778766518221405</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.136897415203563</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>-0.331946034010987</v>
@@ -811,10 +919,16 @@
       <c r="F20" t="n">
         <v>0.916767291778053</v>
       </c>
+      <c r="G20" t="n">
+        <v>-0.805486526547936</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.141594458525962</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>0.0636835725888246</v>
@@ -831,10 +945,16 @@
       <c r="F21" t="n">
         <v>0.00000218731088813518</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.0383425873775503</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0890245578000989</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>0.176260935328023</v>
@@ -851,10 +971,16 @@
       <c r="F22" t="n">
         <v>0.0159571722832122</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.0156918085870051</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.336830062069042</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
         <v>0.181548566336807</v>
@@ -871,10 +997,16 @@
       <c r="F23" t="n">
         <v>0.00000218731088813518</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.10930670948664</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.253790423186974</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>0.502483117845728</v>
@@ -891,10 +1023,16 @@
       <c r="F24" t="n">
         <v>0.0159571722832122</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.0447340693430617</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.960232166348395</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
         <v>0.165061577323917</v>
@@ -911,10 +1049,16 @@
       <c r="F25" t="n">
         <v>0.0000128756838171037</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.0923324157042769</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.237790738943557</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>0.497007611334904</v>
@@ -930,6 +1074,12 @@
       </c>
       <c r="F26" t="n">
         <v>0.0169439365394003</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0389343087365633</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.955080913933245</v>
       </c>
     </row>
   </sheetData>
